--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 2\Traveloka_DataAutomation_Performer_Email_S2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 3\Traveloka_DataAutomation_Performer_Email_S3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D58ACA-71DE-4CFF-A854-B523BF19779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8418AFE-BF16-4199-8E7B-1D5E983A1666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,7 +213,7 @@
     <t>[Dev] RPA_Moon_PathExcel</t>
   </si>
   <si>
-    <t>RPA_Moon_Cred_Gmail</t>
+    <t>[Dev] RPA_Moon_Cred_Gmail</t>
   </si>
 </sst>
 </file>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 3\Traveloka_DataAutomation_Performer_Email_S3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8418AFE-BF16-4199-8E7B-1D5E983A1666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150050E6-D237-4617-824B-34FC6829CAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>[Dev] RPA_Moon_Cred_Gmail</t>
+  </si>
+  <si>
+    <t>RPA_Moon_AutoRetryMaxDay</t>
+  </si>
+  <si>
+    <t>RPA_Moon_AutoRetrySchedule</t>
+  </si>
+  <si>
+    <t>AutoRetryMaxDay</t>
+  </si>
+  <si>
+    <t>AutoRetrySchedule</t>
   </si>
 </sst>
 </file>
@@ -591,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2864,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2952,8 +2964,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 3\Traveloka_DataAutomation_Performer_Email_S3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 4\Traveloka_DataAutomation_Performer_Email_S4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150050E6-D237-4617-824B-34FC6829CAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C900A-F26A-4100-BDD7-B4DD7DA8F668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>AutoRetrySchedule</t>
+  </si>
+  <si>
+    <t>PathSaKey</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_PathSaKey</t>
+  </si>
+  <si>
+    <t>SheetIdConfigChubb</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_SheetIdConfig_Transport</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2889,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2980,8 +2992,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 4\Traveloka_DataAutomation_Performer_Email_S4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\Sprint 4 Email\Traveloka_DataAutomation_Performer_Email_S4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C900A-F26A-4100-BDD7-B4DD7DA8F668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96487179-7B4E-4505-9F54-7874FE92FFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>[Dev] RPA_Moon_SheetIdConfig_Transport</t>
+  </si>
+  <si>
+    <t>PathTemplateIata</t>
+  </si>
+  <si>
+    <t>PathTabula</t>
+  </si>
+  <si>
+    <t>Data\Template\Template_IATA.xlsx</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_PathTabula</t>
   </si>
 </sst>
 </file>
@@ -616,7 +628,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -725,7 +737,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1718,6 +1737,9 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2881,6 +2903,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2889,7 +2914,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3008,7 +3033,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4001,5 +4033,8 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\Sprint 4 Email\Traveloka_DataAutomation_Performer_Email_S4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 4\Traveloka_DataAutomation_Performer_Email_S4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96487179-7B4E-4505-9F54-7874FE92FFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA2537-C049-4C70-AA11-1A75FB9A41E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -213,9 +213,6 @@
     <t>[Dev] RPA_Moon_PathExcel</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_Cred_Gmail</t>
-  </si>
-  <si>
     <t>RPA_Moon_AutoRetryMaxDay</t>
   </si>
   <si>
@@ -243,13 +240,13 @@
     <t>PathTemplateIata</t>
   </si>
   <si>
-    <t>PathTabula</t>
-  </si>
-  <si>
     <t>Data\Template\Template_IATA.xlsx</t>
   </si>
   <si>
-    <t>[Dev] RPA_Moon_PathTabula</t>
+    <t>[Dev] RPA_Moon_Cred_GmailCtrpa1</t>
+  </si>
+  <si>
+    <t>PathSAKey</t>
   </si>
 </sst>
 </file>
@@ -628,15 +625,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -684,7 +681,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -694,7 +691,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -710,7 +707,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -739,10 +736,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1751,12 +1748,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1793,7 +1790,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1918,7 +1915,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2914,15 +2911,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3003,42 +3000,42 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 4\Traveloka_DataAutomation_Performer_Email_S4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA2537-C049-4C70-AA11-1A75FB9A41E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5FD98F-B140-4DDA-ACE6-103BCC813F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>[Dev] RPA_Moon_Cred_GmailCtrpa1</t>
-  </si>
-  <si>
-    <t>PathSAKey</t>
   </si>
 </sst>
 </file>
@@ -628,12 +625,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -681,7 +678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -691,7 +688,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1748,12 +1745,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1790,7 +1787,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1915,7 +1912,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2908,18 +2905,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3030,14 +3027,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4026,7 +4016,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TVLK\Sprint 4\Traveloka_DataAutomation_Performer_Email_S4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\Sprint 4 Email\Traveloka_DataAutomation_Performer_Email_S4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5FD98F-B140-4DDA-ACE6-103BCC813F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0036F-8094-4B1E-A4C2-845042678283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>[Dev] RPA_Moon_Cred_GmailCtrpa1</t>
+  </si>
+  <si>
+    <t>[Dev] RPA_Moon_PathTabula</t>
+  </si>
+  <si>
+    <t>PathTabula</t>
   </si>
 </sst>
 </file>
@@ -1731,9 +1737,6 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -2897,9 +2900,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -2908,7 +2908,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3027,7 +3027,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
